--- a/Timeline dan mandays.xlsx
+++ b/Timeline dan mandays.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alfii\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DC030A2-7202-4687-899B-003E7E0E049B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D32ED91F-11B1-416F-A926-DBDD1697BD74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="38">
   <si>
     <t>Tahap</t>
   </si>
@@ -123,9 +123,6 @@
   </si>
   <si>
     <t>BE</t>
-  </si>
-  <si>
-    <t>DEV</t>
   </si>
   <si>
     <t>MOBILE DEV</t>
@@ -175,7 +172,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -198,11 +195,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -210,18 +244,28 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1041,114 +1085,117 @@
   <dimension ref="A1:S11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="46.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="19" width="4.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="A1" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="3" t="s">
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3" t="s">
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="5" t="s">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="L2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="M2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="N2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="O2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="P2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="Q2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="R2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="S2" s="5" t="s">
+      <c r="S2" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="6">
-        <v>5</v>
-      </c>
-      <c r="C3" s="6" t="s">
+      <c r="B3" s="4">
+        <v>5</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="7"/>
+      <c r="D3" s="7">
+        <v>5</v>
+      </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
@@ -1166,17 +1213,19 @@
       <c r="S3" s="4"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="6">
-        <v>5</v>
-      </c>
-      <c r="C4" s="6" t="s">
+      <c r="B4" s="4">
+        <v>5</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D4" s="4"/>
-      <c r="E4" s="7"/>
+      <c r="E4" s="7">
+        <v>5</v>
+      </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
@@ -1193,18 +1242,20 @@
       <c r="S4" s="4"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="4">
         <v>4</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
-      <c r="F5" s="7"/>
+      <c r="F5" s="7">
+        <v>4</v>
+      </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
@@ -1220,21 +1271,23 @@
       <c r="S5" s="4"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="4">
         <v>15</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="4" t="s">
         <v>33</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
+      <c r="G6" s="8">
+        <v>15</v>
+      </c>
+      <c r="H6" s="9"/>
+      <c r="I6" s="10"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
@@ -1247,14 +1300,14 @@
       <c r="S6" s="4"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="4">
         <v>10</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>34</v>
+      <c r="C7" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
@@ -1262,8 +1315,10 @@
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
+      <c r="J7" s="8">
+        <v>10</v>
+      </c>
+      <c r="K7" s="10"/>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
@@ -1274,14 +1329,14 @@
       <c r="S7" s="4"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="4">
         <v>12</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>35</v>
+      <c r="C8" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
@@ -1291,23 +1346,25 @@
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
+      <c r="L8" s="8">
+        <v>12</v>
+      </c>
+      <c r="M8" s="9"/>
+      <c r="N8" s="10"/>
       <c r="O8" s="4"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="8"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
       <c r="S8" s="4"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="6">
-        <v>5</v>
-      </c>
-      <c r="C9" s="6" t="s">
+      <c r="B9" s="4">
+        <v>5</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="4"/>
@@ -1321,20 +1378,22 @@
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
-      <c r="O9" s="7"/>
+      <c r="O9" s="7">
+        <v>5</v>
+      </c>
       <c r="P9" s="4"/>
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
       <c r="S9" s="4"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="6">
-        <v>5</v>
-      </c>
-      <c r="C10" s="6" t="s">
+      <c r="B10" s="4">
+        <v>5</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D10" s="4"/>
@@ -1349,19 +1408,21 @@
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
-      <c r="P10" s="7"/>
+      <c r="P10" s="7">
+        <v>5</v>
+      </c>
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
       <c r="S10" s="4"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="4">
         <v>3</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D11" s="4"/>
@@ -1377,12 +1438,17 @@
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
       <c r="P11" s="4"/>
-      <c r="Q11" s="7"/>
+      <c r="Q11" s="7">
+        <v>3</v>
+      </c>
       <c r="R11" s="4"/>
       <c r="S11" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="10">
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L8:N8"/>
     <mergeCell ref="P1:S1"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="B1:B2"/>
